--- a/public/assets/download/customers_template.xlsx
+++ b/public/assets/download/customers_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arash\Desktop\task\TaskLaravel\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>NL00AAAA00000000</t>
   </si>
   <si>
@@ -46,12 +43,51 @@
   </si>
   <si>
     <t>10.1</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Alicea Jonean</t>
+  </si>
+  <si>
+    <t>Micheal Jimo</t>
+  </si>
+  <si>
+    <t>Varine Simoke</t>
+  </si>
+  <si>
+    <t>NL00ABAC00000001</t>
+  </si>
+  <si>
+    <t>NL00AADD00000002</t>
+  </si>
+  <si>
+    <t>NL00ERFA00000003</t>
+  </si>
+  <si>
+    <t>NLABFA2A</t>
+  </si>
+  <si>
+    <t>DLTAAA2A</t>
+  </si>
+  <si>
+    <t>KLCARJ2A</t>
+  </si>
+  <si>
+    <t>refrence</t>
+  </si>
+  <si>
+    <t>end-to-end-ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -88,11 +124,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,15 +351,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -332,22 +372,72 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>12.9</v>
       </c>
     </row>
   </sheetData>
